--- a/instance/zyjk/zentao/cliWorkDiary.xlsx
+++ b/instance/zyjk/zentao/cliWorkDiary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,22 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2月5日工作日志</t>
+          <t>2月10日工作日志</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">医院管理支持多地址维护功能&lt;br /&gt;客户地址维护优化&lt;br /&gt;新增同一客户功能&lt;br /&gt;客户增加“自然”标签&lt;br /&gt;   &lt;br /&gt; </t>
+          <t xml:space="preserve">  &lt;br /&gt;  2月10日工作内容：&lt;br /&gt; &lt;strong&gt;erp3.8功能测试，如下：&lt;/strong&gt;&lt;br /&gt;    1、同一客户需求5，依叶、氨叶月度患者总潜力同一客户之和 &lt;strong&gt;已完成100%&lt;/strong&gt;&lt;br /&gt;    2、无拜访，有销量客户管理增加“自然标签” A自然、Y自然、Z自然、H自然，显示逻辑测试 &lt;strong&gt;已完成40%&lt;/strong&gt;&lt;br /&gt;    3、依叶、氨叶、整肠生、潜力显示“最近管理患者数”取值逻辑测试，/getPotentialList接口返回数据验证 &lt;strong&gt;已完成100%；&lt;/strong&gt;&lt;br /&gt;    4、患者数管理数据维护与导入；&lt;br /&gt;    5、数据库t_product_patient_num、t_product_patient_num数据验证与核对，测试数据准确性；&lt;br /&gt;    6、与开发同事沟通需求逻辑，与开发人员沟通已提交的缺陷，确认修复进度，对已修复的缺陷进行回归测试，确保问题已解决且未引入新问题，更新缺陷状态并记录测试结果&lt;br /&gt;    7、代码拉取与合并，Jenkins项目版本构建，k8s日志拉取；&lt;br /&gt; &lt;strong&gt;测试部门例会&lt;/strong&gt;&lt;br /&gt;   汇报测试进度，后续工作安排；&lt;br /&gt; &lt;strong&gt;2月11日工作&lt;/strong&gt;&lt;strong&gt;计划&lt;/strong&gt;&lt;strong&gt;：&lt;/strong&gt;&lt;br /&gt;  1、erp3.8增加自然标签需求测试，禅道12016回归测试；&lt;br /&gt;  2、erp3.8中3.4.1、3.4.2需求开发进度跟进；&lt;br /&gt;  3、公卫2.16测试用例编写；</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-02-05 17:59:04</t>
+          <t>2025-02-10 17:01:38</t>
         </is>
       </c>
     </row>
@@ -493,91 +493,91 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>25Y05-000ERP、进销存系统</t>
+          <t>25Y02-Z01公共卫生管理系统</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2月6日工作日志</t>
+          <t>2月10日工作日志</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1、医院管理地址维护、客户管理测试  2、同一客户功能测试；  3、非目标客户删除测试；  4、bug提交与回归测试；</t>
+          <t xml:space="preserve">  2月10日工作内容：    1、bug高血压管理卡、糖尿病管理卡前端显示bug提交；    2、高血压随访导出字段不一致bug提交；    3、禅道12015复现与测试；</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-02-06 17:57:58</t>
+          <t>2025-02-10 17:04:54</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>舒阳阳</t>
+          <t>陈晓东</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>25Y05-000ERP、进销存系统</t>
+          <t>25Y01-Z01区域HIS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2月7日工作日志</t>
+          <t>2.10云his工作日志</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">开发管理优化&lt;br /&gt;科室字典增加其他&lt;br /&gt;拜访类型销售修改为推广&lt;br /&gt;   &lt;br /&gt; </t>
+          <t>完成30%，云hisV3.3.24测试用例编写，功能如下：&lt;br /&gt;1诊间随访慢病随访提示时间优化 &lt;br /&gt;2门诊补报界面显示诊断       &lt;br /&gt;3门诊病历支持多份病历添加    &lt;br /&gt;4住院单界面保存完不自动关闭界面&lt;br /&gt;完成20%，云hisv3.3.23版本功能测试，如下：&lt;br /&gt;1病区事务-转区，增加转入科室和转入病区联动（类似入院登记），防止护士选错&lt;br /&gt;2检验报告批量打印时，增加整体loading，防止医生点击多次&lt;br /&gt;  已完成，云hisv3.3.23bug确认提交，禅道12017  &lt;br /&gt;明日工作计划：&lt;br /&gt;1、编写云hisV3.3.24测试用例&lt;br /&gt;  2、V3.3.23功能测试  3、云his及妇幼保健院现场问题协助解决</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-02-07 17:51:36</t>
+          <t>2025-02-10 17:36:29</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>舒阳阳</t>
+          <t>陈晓东</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>25Y05-000ERP、进销存系统</t>
+          <t>25Y13-I21白茅岭HIS优化</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2月8日工作日志</t>
+          <t>2.10白茅岭工作日志</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1、客户地址维护优化&lt;br /&gt;新增同一客户功能&lt;br /&gt;客户增加“自然”标签&lt;br /&gt;   &lt;br /&gt; &lt;div class="image-loading-ele small" style="padding:5px;background:#FFF3E0;border:1px solid #FF9800;color:#ff5d5d;margin:10px 0;"&gt;  &lt;i class="icon icon-spin icon-spinner-indicator muted"&gt;&lt;/i&gt; 正在上传图片，请稍后... </t>
+          <t>已完成，白茅岭功能优化:&lt;br /&gt;1出区时如果当天有多条护理医嘱，则使用停用时间最近的一条进行计费&lt;br /&gt;  &lt;br /&gt;  明日工作计划：  1版本发布</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-02-08 17:41:13</t>
+          <t>2025-02-10 17:38:06</t>
         </is>
       </c>
     </row>
@@ -589,219 +589,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>25Y18-F09沪享瘦优化</t>
+          <t>25Y22-099静安健康管理中心</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.5工作日志</t>
+          <t>2.10社区健康（静安）工作日志</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1患者列表、患者新增&lt;br /&gt;2 患者筛选-查询&lt;br /&gt;3患者主页&lt;br /&gt;4就诊记录列表&lt;br /&gt;5患者随访指标查看&lt;br /&gt;6就诊记录-评估报告&lt;br /&gt;7检验报告趋势图查看&lt;br /&gt;   &lt;br /&gt; </t>
+          <t xml:space="preserve">  1已完成，社区健康（静安）v1.12.2功能回归：签约居民管理、统计分析管理模块，原因是新增了死亡查询接口（后端及sql有变化）  明日工作计划：  暂无</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-02-05 17:56:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>陈晓东</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>25Y14-Z03招远妇幼HIS优化</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2.5工作日志</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  1处理医生站-护士站-新生儿皮试登记按钮不显示问题  2测试新生儿皮试登记修改后逻辑，发布正式  3床头卡打印-饮食方式取值问题确认 - -进行中</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-02-05 17:59:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>陈晓东</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>25Y18-F09沪享瘦优化</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2.6工作日志</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  沪享瘦功能测试：  1医生端-我的  2医生端-患者主页  3医生端-检验报告趋势图数据图线比对  4患者端-减重比赛排行榜  5问题反馈-回归验证</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-02-06 17:56:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>陈晓东</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>25Y01-Z01区域HIS</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1.6工作日志</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1云his3.10版本-需求评审</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-02-06 17:57:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>陈晓东</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>25Y01-Z01区域HIS</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2.7工作日志</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  沟通确认云his3.3.2.3需求  功能测试：  1优化病区一栏列表模式床位医生排序方法  2精麻处方引用历史处方时，新建处方和引入明细总量计算方式不同  3.中医病案首页也增加病案首页上报2.中/西医病案首页打印，   与患者关系过长时，超过五个字截断不再显示</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-02-07 17:56:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>陈晓东</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>25Y18-F09沪享瘦优化</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2.7工作日志</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  测试沪享瘦4.2版本功能  1医生端-检验报告查看  2排序功能验证  3患者端-随访数据维护  4减重排行榜-各指标计算  5bug反馈，回归验证</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2025-02-07 17:59:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>陈晓东</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>25Y01-Z01区域HIS</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2.8工作日志</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  云his功能测试：  1优化病区一栏列表模式床位医生排序方法2精麻处方引用历史处方时，新建处方和引入明细总量计算方式不同&lt;br /&gt;3中医病案首页也增加病案首页上报&lt;br /&gt;4中/西医病案首页打印，与患者关系过长时，超过五个字截断不再显示&lt;br /&gt;5病区事务-转区，增加转入科室和转入病区联动（类似入院登记），防止护士选错&lt;br /&gt;6检验报告批量打印时，增加整体loading，防止医生点击多次&lt;br /&gt;</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2025-02-08 18:00:49</t>
+          <t>2025-02-10 17:39:58</t>
         </is>
       </c>
     </row>
